--- a/data/output/FV2410_FV2404/INVOIC/31002.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="435">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="435">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1452,6 +1452,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U239" totalsRowShown="0">
+  <autoFilter ref="A1:U239"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,7 +1771,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13069,5 +13102,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31002.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31002.xlsx
@@ -2544,7 +2544,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3490,7 +3490,7 @@
         <v>405</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3678,7 +3678,7 @@
         <v>405</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -4254,7 +4254,7 @@
         <v>406</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2"/>
@@ -4396,7 +4396,7 @@
         <v>407</v>
       </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9548,7 +9548,7 @@
         <v>422</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9868,7 +9868,7 @@
         <v>425</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10072,7 +10072,7 @@
         <v>425</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11610,7 +11610,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N197" s="2"/>
@@ -12464,7 +12464,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12764,7 +12764,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12910,7 +12910,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13778,7 +13778,7 @@
         <v>434</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -13932,7 +13932,7 @@
         <v>435</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -14382,7 +14382,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N237" s="2"/>
